--- a/doc/チャート君.xlsx
+++ b/doc/チャート君.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A632D868-7857-4A44-9D20-1D70093349A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5036219-1A6F-40ED-A348-5492681612E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -63,20 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成者</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始</t>
     <rPh sb="0" eb="2">
       <t>カイシ</t>
@@ -103,6 +89,218 @@
   </si>
   <si>
     <t>2023//</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TrainingmenuDao.java</t>
+  </si>
+  <si>
+    <t>TrainingrecordDao.java</t>
+  </si>
+  <si>
+    <t>UserinformationDao.java</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalendarServlet.java</t>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+  </si>
+  <si>
+    <t>UserRegistServlet.java</t>
+  </si>
+  <si>
+    <t>login.jsp</t>
+  </si>
+  <si>
+    <t>user_regist.jsp</t>
+  </si>
+  <si>
+    <t>training_record.jsp</t>
+  </si>
+  <si>
+    <t>calendar.jsp</t>
+  </si>
+  <si>
+    <t>ranking.jsp</t>
+  </si>
+  <si>
+    <t>m_ranking.jsp</t>
+  </si>
+  <si>
+    <t>w_ranking.jsp</t>
+  </si>
+  <si>
+    <t>timer.jsp</t>
+  </si>
+  <si>
+    <t>mypage.jsp</t>
+  </si>
+  <si>
+    <t>result.jsp</t>
+  </si>
+  <si>
+    <t>common.jsp</t>
+  </si>
+  <si>
+    <t>common.css</t>
+  </si>
+  <si>
+    <t>login.css</t>
+  </si>
+  <si>
+    <t>user_regist.css</t>
+  </si>
+  <si>
+    <t>training_record.css</t>
+  </si>
+  <si>
+    <t>calendar.css</t>
+  </si>
+  <si>
+    <t>ranking.css</t>
+  </si>
+  <si>
+    <t>m_ranking.css</t>
+  </si>
+  <si>
+    <t>w_ranking.css</t>
+  </si>
+  <si>
+    <t>timer.css</t>
+  </si>
+  <si>
+    <t>mypage.css</t>
+  </si>
+  <si>
+    <t>result.css</t>
+  </si>
+  <si>
+    <t>Mypage_UpdateDeleteServlet.java</t>
+  </si>
+  <si>
+    <t>Calender_UpdateDeleteServlet.java</t>
+  </si>
+  <si>
+    <t>TrainingRecordServlet.java</t>
+  </si>
+  <si>
+    <t>RankingServlet.java</t>
+  </si>
+  <si>
+    <t>MrankingServlet.java</t>
+  </si>
+  <si>
+    <t>WrankingServlet.java</t>
+  </si>
+  <si>
+    <t>TimerServlet.java</t>
+  </si>
+  <si>
+    <t>MypageServlet.java</t>
+  </si>
+  <si>
+    <t>ResultServlet.java</t>
+  </si>
+  <si>
+    <t>Alltable.java</t>
+  </si>
+  <si>
+    <t>Userinformation.java</t>
+  </si>
+  <si>
+    <t>Trainingrecord.java</t>
+  </si>
+  <si>
+    <t>Trainingmenu.java</t>
+  </si>
+  <si>
+    <t>Lvsum.java</t>
+  </si>
+  <si>
+    <t>Expsum.java</t>
+  </si>
+  <si>
+    <t>common.js</t>
+  </si>
+  <si>
+    <t>login.js</t>
+  </si>
+  <si>
+    <t>user_regist.js</t>
+  </si>
+  <si>
+    <t>training_record.js</t>
+  </si>
+  <si>
+    <t>calendar.js</t>
+  </si>
+  <si>
+    <t>ranking.js</t>
+  </si>
+  <si>
+    <t>timer.js</t>
+  </si>
+  <si>
+    <t>mypage.js</t>
+  </si>
+  <si>
+    <t>result.js</t>
+  </si>
+  <si>
+    <t>TrainingmenuDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserinformationDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TrainingrecordDaoTest.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了率</t>
+    <rPh sb="0" eb="3">
+      <t>カンリョウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わったら黄色</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中なら茶色</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手したら灰色</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイイロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -174,7 +372,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +391,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -248,21 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
@@ -299,13 +542,295 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,20 +870,29 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -369,31 +903,172 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -413,6 +1088,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -687,23 +1371,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM5" sqref="AM5"/>
+      <pane xSplit="27" ySplit="8" topLeftCell="AB24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="3" style="2" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="2" customWidth="1"/>
-    <col min="6" max="36" width="2.83203125" style="2" customWidth="1"/>
-    <col min="37" max="38" width="3.5" style="2"/>
-    <col min="39" max="39" width="3.5" style="2" customWidth="1"/>
-    <col min="40" max="16384" width="3.5" style="2"/>
+    <col min="6" max="38" width="2.83203125" style="2" customWidth="1"/>
+    <col min="39" max="40" width="3.5" style="2"/>
+    <col min="41" max="41" width="3.5" style="2" customWidth="1"/>
+    <col min="42" max="16384" width="3.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -740,20 +1427,22 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:43" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+    </row>
+    <row r="2" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
         <v>2023</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="18">
         <v>6</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
@@ -761,429 +1450,455 @@
       <c r="I2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="46"/>
+      <c r="V2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="19">
+        <v>45091</v>
+      </c>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="24" t="s">
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+    </row>
+    <row r="5" spans="1:45" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:45" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="23">
-        <v>45091</v>
-      </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-    </row>
-    <row r="5" spans="1:43" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:43" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="J6" s="54"/>
+      <c r="K6" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="25">
+      <c r="N6" s="55"/>
+      <c r="O6" s="56">
         <f>E2</f>
         <v>6</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-    </row>
-    <row r="7" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="9">
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="57"/>
+    </row>
+    <row r="7" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="9">
         <f>DATE($A$2,$E$2,1)</f>
         <v>45078</v>
       </c>
-      <c r="N7" s="9">
+      <c r="P7" s="9">
         <f>DATE($A$2,$E$2,2)</f>
         <v>45079</v>
       </c>
-      <c r="O7" s="9">
+      <c r="Q7" s="9">
         <f>DATE($A$2,$E$2,3)</f>
         <v>45080</v>
       </c>
-      <c r="P7" s="9">
+      <c r="R7" s="9">
         <f>DATE($A$2,$E$2,4)</f>
         <v>45081</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="S7" s="9">
         <f>DATE($A$2,$E$2,5)</f>
         <v>45082</v>
       </c>
-      <c r="R7" s="9">
+      <c r="T7" s="9">
         <f>DATE($A$2,$E$2,6)</f>
         <v>45083</v>
       </c>
-      <c r="S7" s="9">
+      <c r="U7" s="9">
         <f>DATE($A$2,$E$2,7)</f>
         <v>45084</v>
       </c>
-      <c r="T7" s="9">
+      <c r="V7" s="9">
         <f>DATE($A$2,$E$2,8)</f>
         <v>45085</v>
       </c>
-      <c r="U7" s="9">
+      <c r="W7" s="9">
         <f>DATE($A$2,$E$2,9)</f>
         <v>45086</v>
       </c>
-      <c r="V7" s="9">
+      <c r="X7" s="9">
         <f>DATE($A$2,$E$2,10)</f>
         <v>45087</v>
       </c>
-      <c r="W7" s="9">
+      <c r="Y7" s="9">
         <f>DATE($A$2,$E$2,11)</f>
         <v>45088</v>
       </c>
-      <c r="X7" s="9">
+      <c r="Z7" s="9">
         <f>DATE($A$2,$E$2,12)</f>
         <v>45089</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="AA7" s="9">
         <f>DATE($A$2,$E$2,13)</f>
         <v>45090</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="AB7" s="9">
         <f>DATE($A$2,$E$2,14)</f>
         <v>45091</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AC7" s="9">
         <f>DATE($A$2,$E$2,15)</f>
         <v>45092</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AD7" s="9">
         <f>DATE($A$2,$E$2,16)</f>
         <v>45093</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AE7" s="9">
         <f>DATE($A$2,$E$2,17)</f>
         <v>45094</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AF7" s="9">
         <f>DATE($A$2,$E$2,18)</f>
         <v>45095</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AG7" s="9">
         <f>DATE($A$2,$E$2,19)</f>
         <v>45096</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AH7" s="9">
         <f>DATE($A$2,$E$2,20)</f>
         <v>45097</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AI7" s="9">
         <f>DATE($A$2,$E$2,21)</f>
         <v>45098</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AJ7" s="9">
         <f>DATE($A$2,$E$2,22)</f>
         <v>45099</v>
       </c>
-      <c r="AI7" s="9">
+      <c r="AK7" s="9">
         <f>DATE($A$2,$E$2,23)</f>
         <v>45100</v>
       </c>
-      <c r="AJ7" s="9">
+      <c r="AL7" s="9">
         <f>DATE($A$2,$E$2,24)</f>
         <v>45101</v>
       </c>
-      <c r="AK7" s="9">
+      <c r="AM7" s="9">
         <f>DATE($A$2,$E$2,25)</f>
         <v>45102</v>
       </c>
-      <c r="AL7" s="9">
+      <c r="AN7" s="9">
         <f>DATE($A$2,$E$2,26)</f>
         <v>45103</v>
       </c>
-      <c r="AM7" s="9">
+      <c r="AO7" s="9">
         <f>DATE($A$2,$E$2,27)</f>
         <v>45104</v>
       </c>
-      <c r="AN7" s="9">
+      <c r="AP7" s="9">
         <f>DATE($A$2,$E$2,28)</f>
         <v>45105</v>
       </c>
-      <c r="AO7" s="9">
+      <c r="AQ7" s="9">
         <f>DATE($A$2,$E$2,29)</f>
         <v>45106</v>
       </c>
-      <c r="AP7" s="9">
+      <c r="AR7" s="9">
         <f>DATE($A$2,$E$2,30)</f>
         <v>45107</v>
       </c>
-      <c r="AQ7" s="9">
+      <c r="AS7" s="59">
         <f>DATE($A$2,$E$2,31)</f>
         <v>45108</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="9" t="str">
-        <f t="shared" ref="M8:AQ8" si="0">TEXT(M7,"aaa")</f>
+    <row r="8" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="9" t="str">
+        <f t="shared" ref="O8:AS8" si="0">TEXT(O7,"aaa")</f>
         <v>木</v>
       </c>
-      <c r="N8" s="9" t="str">
+      <c r="P8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="O8" s="9" t="str">
+      <c r="Q8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="P8" s="9" t="str">
+      <c r="R8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="Q8" s="9" t="str">
+      <c r="S8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="R8" s="9" t="str">
+      <c r="T8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="S8" s="9" t="str">
+      <c r="U8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="T8" s="9" t="str">
+      <c r="V8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="U8" s="9" t="str">
+      <c r="W8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="V8" s="9" t="str">
+      <c r="X8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="W8" s="9" t="str">
+      <c r="Y8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="X8" s="9" t="str">
+      <c r="Z8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="Y8" s="9" t="str">
+      <c r="AA8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="Z8" s="9" t="str">
+      <c r="AB8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="AA8" s="9" t="str">
+      <c r="AC8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="AB8" s="9" t="str">
+      <c r="AD8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="AC8" s="9" t="str">
+      <c r="AE8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="AD8" s="9" t="str">
+      <c r="AF8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="AE8" s="9" t="str">
+      <c r="AG8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="AF8" s="9" t="str">
+      <c r="AH8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="AG8" s="9" t="str">
+      <c r="AI8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="AH8" s="9" t="str">
+      <c r="AJ8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="AI8" s="9" t="str">
+      <c r="AK8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="AJ8" s="9" t="str">
+      <c r="AL8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="AK8" s="9" t="str">
+      <c r="AM8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="AL8" s="9" t="str">
+      <c r="AN8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="AM8" s="9" t="str">
+      <c r="AO8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="AN8" s="9" t="str">
+      <c r="AP8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="AO8" s="9" t="str">
+      <c r="AQ8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="AP8" s="9" t="str">
+      <c r="AR8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="AQ8" s="9" t="str">
+      <c r="AS8" s="59" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18">
-        <v>45078</v>
-      </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+    <row r="9" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="44"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
+      <c r="Z9" s="49"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
@@ -1200,39 +1915,45 @@
       <c r="AN9" s="11"/>
       <c r="AO9" s="11"/>
       <c r="AP9" s="11"/>
-      <c r="AQ9" s="13"/>
-    </row>
-    <row r="10" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18">
-        <v>45078</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="61"/>
+    </row>
+    <row r="10" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="45">
+        <v>0</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
@@ -1247,26 +1968,32 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="13"/>
-    </row>
-    <row r="11" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18">
-        <v>45078</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="61"/>
+    </row>
+    <row r="11" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="45">
+        <v>0</v>
+      </c>
+      <c r="L11" s="44"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -1277,43 +2004,49 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="11"/>
       <c r="AP11" s="11"/>
-      <c r="AQ11" s="13"/>
-    </row>
-    <row r="12" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
-        <v>45078</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="61"/>
+    </row>
+    <row r="12" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J12" s="43"/>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
+      <c r="L12" s="44"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -1324,41 +2057,49 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
+      <c r="Z12" s="49"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="13"/>
-    </row>
-    <row r="13" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="61"/>
+    </row>
+    <row r="13" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J13" s="43"/>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
@@ -1369,7 +2110,7 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
+      <c r="Z13" s="49"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
@@ -1384,26 +2125,34 @@
       <c r="AL13" s="11"/>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="29"/>
-    </row>
-    <row r="14" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="62"/>
+    </row>
+    <row r="14" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="45">
+        <v>0</v>
+      </c>
+      <c r="L14" s="44"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
@@ -1414,7 +2163,7 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
+      <c r="Z14" s="49"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
@@ -1431,24 +2180,32 @@
       <c r="AN14" s="11"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="11"/>
-      <c r="AQ14" s="13"/>
-    </row>
-    <row r="15" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="61"/>
+    </row>
+    <row r="15" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J15" s="43"/>
+      <c r="K15" s="45">
+        <v>0</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -1459,7 +2216,7 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
+      <c r="Z15" s="49"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
@@ -1476,24 +2233,32 @@
       <c r="AN15" s="11"/>
       <c r="AO15" s="11"/>
       <c r="AP15" s="11"/>
-      <c r="AQ15" s="13"/>
-    </row>
-    <row r="16" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="61"/>
+    </row>
+    <row r="16" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="45">
+        <v>0</v>
+      </c>
+      <c r="L16" s="44"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="13"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -1504,7 +2269,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
+      <c r="Z16" s="49"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
@@ -1521,24 +2286,32 @@
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="11"/>
-      <c r="AQ16" s="13"/>
-    </row>
-    <row r="17" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="61"/>
+    </row>
+    <row r="17" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J17" s="43"/>
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="44"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -1549,7 +2322,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
+      <c r="Z17" s="49"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
@@ -1566,24 +2339,32 @@
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
       <c r="AP17" s="11"/>
-      <c r="AQ17" s="13"/>
-    </row>
-    <row r="18" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="61"/>
+    </row>
+    <row r="18" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="45">
+        <v>0</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="13"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -1594,7 +2375,7 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
+      <c r="Z18" s="49"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
@@ -1611,24 +2392,32 @@
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
       <c r="AP18" s="11"/>
-      <c r="AQ18" s="13"/>
-    </row>
-    <row r="19" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="61"/>
+    </row>
+    <row r="19" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="45">
+        <v>0</v>
+      </c>
+      <c r="L19" s="44"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="13"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -1639,7 +2428,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
+      <c r="Z19" s="49"/>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
@@ -1656,24 +2445,32 @@
       <c r="AN19" s="11"/>
       <c r="AO19" s="11"/>
       <c r="AP19" s="11"/>
-      <c r="AQ19" s="13"/>
-    </row>
-    <row r="20" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="61"/>
+    </row>
+    <row r="20" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J20" s="43"/>
+      <c r="K20" s="45">
+        <v>0</v>
+      </c>
+      <c r="L20" s="44"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
@@ -1701,24 +2498,32 @@
       <c r="AN20" s="11"/>
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
-      <c r="AQ20" s="13"/>
-    </row>
-    <row r="21" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="61"/>
+    </row>
+    <row r="21" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="45">
+        <v>0</v>
+      </c>
+      <c r="L21" s="44"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -1746,24 +2551,32 @@
       <c r="AN21" s="11"/>
       <c r="AO21" s="11"/>
       <c r="AP21" s="11"/>
-      <c r="AQ21" s="13"/>
-    </row>
-    <row r="22" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="61"/>
+    </row>
+    <row r="22" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="45">
+        <v>0</v>
+      </c>
+      <c r="L22" s="44"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="13"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -1791,24 +2604,32 @@
       <c r="AN22" s="11"/>
       <c r="AO22" s="11"/>
       <c r="AP22" s="11"/>
-      <c r="AQ22" s="13"/>
-    </row>
-    <row r="23" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="61"/>
+    </row>
+    <row r="23" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="45">
+        <v>0</v>
+      </c>
+      <c r="L23" s="44"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="10"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -1836,24 +2657,32 @@
       <c r="AN23" s="11"/>
       <c r="AO23" s="11"/>
       <c r="AP23" s="11"/>
-      <c r="AQ23" s="13"/>
-    </row>
-    <row r="24" spans="1:43" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="61"/>
+    </row>
+    <row r="24" spans="1:45" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="45">
+        <v>0</v>
+      </c>
+      <c r="L24" s="44"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="13"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
@@ -1881,54 +2710,2314 @@
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
-      <c r="AQ24" s="13"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="61"/>
+    </row>
+    <row r="25" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J25" s="43"/>
+      <c r="K25" s="45">
+        <v>0</v>
+      </c>
+      <c r="L25" s="44"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="61"/>
+    </row>
+    <row r="26" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J26" s="43"/>
+      <c r="K26" s="45">
+        <v>0</v>
+      </c>
+      <c r="L26" s="44"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="61"/>
+    </row>
+    <row r="27" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J27" s="43"/>
+      <c r="K27" s="45">
+        <v>0</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="61"/>
+    </row>
+    <row r="28" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J28" s="43"/>
+      <c r="K28" s="45">
+        <v>0</v>
+      </c>
+      <c r="L28" s="44"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="61"/>
+    </row>
+    <row r="29" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J29" s="43"/>
+      <c r="K29" s="45">
+        <v>0</v>
+      </c>
+      <c r="L29" s="44"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="61"/>
+    </row>
+    <row r="30" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J30" s="43"/>
+      <c r="K30" s="45">
+        <v>0</v>
+      </c>
+      <c r="L30" s="44"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="61"/>
+    </row>
+    <row r="31" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J31" s="43"/>
+      <c r="K31" s="45">
+        <v>0</v>
+      </c>
+      <c r="L31" s="44"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="61"/>
+    </row>
+    <row r="32" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J32" s="43"/>
+      <c r="K32" s="45">
+        <v>0</v>
+      </c>
+      <c r="L32" s="44"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="61"/>
+    </row>
+    <row r="33" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J33" s="43"/>
+      <c r="K33" s="45">
+        <v>0</v>
+      </c>
+      <c r="L33" s="44"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="61"/>
+    </row>
+    <row r="34" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J34" s="43"/>
+      <c r="K34" s="45">
+        <v>0</v>
+      </c>
+      <c r="L34" s="44"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="61"/>
+    </row>
+    <row r="35" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J35" s="43"/>
+      <c r="K35" s="45">
+        <v>0</v>
+      </c>
+      <c r="L35" s="44"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="61"/>
+    </row>
+    <row r="36" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J36" s="43"/>
+      <c r="K36" s="45">
+        <v>0</v>
+      </c>
+      <c r="L36" s="44"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="61"/>
+    </row>
+    <row r="37" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J37" s="43"/>
+      <c r="K37" s="45">
+        <v>0</v>
+      </c>
+      <c r="L37" s="44"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="61"/>
+    </row>
+    <row r="38" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J38" s="43"/>
+      <c r="K38" s="45">
+        <v>0</v>
+      </c>
+      <c r="L38" s="44"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="61"/>
+    </row>
+    <row r="39" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J39" s="43"/>
+      <c r="K39" s="45">
+        <v>0</v>
+      </c>
+      <c r="L39" s="44"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="61"/>
+    </row>
+    <row r="40" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J40" s="43"/>
+      <c r="K40" s="45">
+        <v>0</v>
+      </c>
+      <c r="L40" s="44"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="11"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="61"/>
+    </row>
+    <row r="41" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J41" s="43"/>
+      <c r="K41" s="45">
+        <v>0</v>
+      </c>
+      <c r="L41" s="44"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="61"/>
+    </row>
+    <row r="42" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J42" s="43"/>
+      <c r="K42" s="45">
+        <v>0</v>
+      </c>
+      <c r="L42" s="44"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="11"/>
+      <c r="AS42" s="61"/>
+    </row>
+    <row r="43" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J43" s="43"/>
+      <c r="K43" s="45">
+        <v>0</v>
+      </c>
+      <c r="L43" s="44"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="61"/>
+    </row>
+    <row r="44" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J44" s="43"/>
+      <c r="K44" s="45">
+        <v>0</v>
+      </c>
+      <c r="L44" s="44"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="61"/>
+    </row>
+    <row r="45" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J45" s="43"/>
+      <c r="K45" s="45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="44"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="11"/>
+      <c r="AS45" s="61"/>
+    </row>
+    <row r="46" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J46" s="43"/>
+      <c r="K46" s="45">
+        <v>0</v>
+      </c>
+      <c r="L46" s="44"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="11"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="61"/>
+    </row>
+    <row r="47" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J47" s="43"/>
+      <c r="K47" s="45">
+        <v>0</v>
+      </c>
+      <c r="L47" s="44"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="61"/>
+    </row>
+    <row r="48" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J48" s="43"/>
+      <c r="K48" s="45">
+        <v>0</v>
+      </c>
+      <c r="L48" s="44"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="61"/>
+    </row>
+    <row r="49" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J49" s="43"/>
+      <c r="K49" s="45">
+        <v>0</v>
+      </c>
+      <c r="L49" s="44"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="61"/>
+    </row>
+    <row r="50" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J50" s="43"/>
+      <c r="K50" s="45">
+        <v>0</v>
+      </c>
+      <c r="L50" s="44"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="61"/>
+    </row>
+    <row r="51" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J51" s="43"/>
+      <c r="K51" s="45">
+        <v>0</v>
+      </c>
+      <c r="L51" s="44"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="61"/>
+    </row>
+    <row r="52" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J52" s="43"/>
+      <c r="K52" s="45">
+        <v>0</v>
+      </c>
+      <c r="L52" s="44"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="61"/>
+    </row>
+    <row r="53" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J53" s="43"/>
+      <c r="K53" s="45">
+        <v>0</v>
+      </c>
+      <c r="L53" s="44"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="61"/>
+    </row>
+    <row r="54" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J54" s="43"/>
+      <c r="K54" s="45">
+        <v>0</v>
+      </c>
+      <c r="L54" s="44"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="11"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="11"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="61"/>
+    </row>
+    <row r="55" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J55" s="43"/>
+      <c r="K55" s="45">
+        <v>0</v>
+      </c>
+      <c r="L55" s="44"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="11"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="61"/>
+    </row>
+    <row r="56" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J56" s="43"/>
+      <c r="K56" s="45">
+        <v>0</v>
+      </c>
+      <c r="L56" s="44"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="61"/>
+    </row>
+    <row r="57" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J57" s="43"/>
+      <c r="K57" s="45">
+        <v>0</v>
+      </c>
+      <c r="L57" s="44"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="11"/>
+      <c r="AR57" s="11"/>
+      <c r="AS57" s="61"/>
+    </row>
+    <row r="58" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J58" s="43"/>
+      <c r="K58" s="45">
+        <v>0</v>
+      </c>
+      <c r="L58" s="44"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="61"/>
+    </row>
+    <row r="59" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J59" s="43"/>
+      <c r="K59" s="45">
+        <v>0</v>
+      </c>
+      <c r="L59" s="44"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="11"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="11"/>
+      <c r="AR59" s="11"/>
+      <c r="AS59" s="61"/>
+    </row>
+    <row r="60" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J60" s="43"/>
+      <c r="K60" s="45">
+        <v>0</v>
+      </c>
+      <c r="L60" s="44"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
+      <c r="AR60" s="11"/>
+      <c r="AS60" s="61"/>
+    </row>
+    <row r="61" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J61" s="43"/>
+      <c r="K61" s="45">
+        <v>0</v>
+      </c>
+      <c r="L61" s="44"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
+      <c r="AL61" s="11"/>
+      <c r="AM61" s="11"/>
+      <c r="AN61" s="11"/>
+      <c r="AO61" s="11"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="11"/>
+      <c r="AR61" s="11"/>
+      <c r="AS61" s="61"/>
+    </row>
+    <row r="62" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J62" s="43"/>
+      <c r="K62" s="45">
+        <v>0</v>
+      </c>
+      <c r="L62" s="44"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
+      <c r="AL62" s="11"/>
+      <c r="AM62" s="11"/>
+      <c r="AN62" s="11"/>
+      <c r="AO62" s="11"/>
+      <c r="AP62" s="11"/>
+      <c r="AQ62" s="11"/>
+      <c r="AR62" s="11"/>
+      <c r="AS62" s="61"/>
+    </row>
+    <row r="63" spans="1:45" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="42">
+        <v>45089</v>
+      </c>
+      <c r="J63" s="43"/>
+      <c r="K63" s="45">
+        <v>0</v>
+      </c>
+      <c r="L63" s="44"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
+      <c r="AN63" s="11"/>
+      <c r="AO63" s="11"/>
+      <c r="AP63" s="11"/>
+      <c r="AQ63" s="11"/>
+      <c r="AR63" s="11"/>
+      <c r="AS63" s="61"/>
+    </row>
+    <row r="64" spans="1:45" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="72">
+        <v>45089</v>
+      </c>
+      <c r="J64" s="73"/>
+      <c r="K64" s="74">
+        <v>0</v>
+      </c>
+      <c r="L64" s="75"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="76"/>
+      <c r="O64" s="77"/>
+      <c r="P64" s="78"/>
+      <c r="Q64" s="78"/>
+      <c r="R64" s="78"/>
+      <c r="S64" s="78"/>
+      <c r="T64" s="78"/>
+      <c r="U64" s="78"/>
+      <c r="V64" s="78"/>
+      <c r="W64" s="78"/>
+      <c r="X64" s="78"/>
+      <c r="Y64" s="78"/>
+      <c r="Z64" s="78"/>
+      <c r="AA64" s="78"/>
+      <c r="AB64" s="78"/>
+      <c r="AC64" s="78"/>
+      <c r="AD64" s="78"/>
+      <c r="AE64" s="78"/>
+      <c r="AF64" s="78"/>
+      <c r="AG64" s="78"/>
+      <c r="AH64" s="78"/>
+      <c r="AI64" s="78"/>
+      <c r="AJ64" s="78"/>
+      <c r="AK64" s="78"/>
+      <c r="AL64" s="78"/>
+      <c r="AM64" s="78"/>
+      <c r="AN64" s="78"/>
+      <c r="AO64" s="78"/>
+      <c r="AP64" s="78"/>
+      <c r="AQ64" s="78"/>
+      <c r="AR64" s="78"/>
+      <c r="AS64" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="M6:AQ6"/>
-    <mergeCell ref="I6:J8"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
+  <mergeCells count="239">
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="I64:J64"/>
     <mergeCell ref="K6:L8"/>
-    <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="M24:N24"/>
     <mergeCell ref="A6:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
@@ -1940,21 +5029,60 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A18:H18"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="O6:AS6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="AH4:AL4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="M6:N8"/>
+    <mergeCell ref="I6:J8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="M7:AQ8">
+  <conditionalFormatting sqref="O7:AS8">
     <cfRule type="expression" dxfId="1" priority="40">
-      <formula>WEEKDAY(M$7)=7</formula>
+      <formula>WEEKDAY(O$7)=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="41">
-      <formula>WEEKDAY(M$7)=1</formula>
+      <formula>WEEKDAY(O$7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
